--- a/BMB_Timesheet_Project.xlsx
+++ b/BMB_Timesheet_Project.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonboyle/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB7ABED3-007E-BA49-ADAD-CFCCC384DD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC3FBA08-E44F-9C4C-B402-7CA5E9C3BA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17280" xr2:uid="{9F1E1690-D6A1-F849-853B-DA743FAA6435}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t xml:space="preserve">Initials </t>
   </si>
@@ -60,6 +60,24 @@
   </si>
   <si>
     <t>Create excel sheet, listened to podcast</t>
+  </si>
+  <si>
+    <t>BUSA-245</t>
+  </si>
+  <si>
+    <t>Class Disscussion</t>
+  </si>
+  <si>
+    <t>ECON-111</t>
+  </si>
+  <si>
+    <t>HW</t>
+  </si>
+  <si>
+    <t>PSYC</t>
+  </si>
+  <si>
+    <t>Project</t>
   </si>
 </sst>
 </file>
@@ -159,16 +177,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,25 +503,25 @@
   <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
     </row>
@@ -512,249 +529,192 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>45175</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3">
         <v>80</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B5" s="1"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7">
+        <v>45179</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B6" s="1"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="7">
+        <v>45179</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="1"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B8" s="1"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B9" s="1"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B10" s="1"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="3"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B11" s="1"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B12" s="1"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="3"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B13" s="1"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="3"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B14" s="1"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3"/>
+      <c r="F14" s="2"/>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="2"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3"/>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3"/>
+      <c r="F17" s="2"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B18" s="1"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3"/>
+      <c r="F18" s="2"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B19" s="1"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B20" s="1"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="3"/>
+      <c r="F20" s="2"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
+      <c r="F21" s="2"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B22" s="1"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B28" s="1"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B29" s="1"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B30" s="1"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="3"/>
+      <c r="F30" s="2"/>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B31" s="1"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
+      <c r="F31" s="2"/>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B32" s="1"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3"/>
+      <c r="F32" s="2"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B33" s="1"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="3"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B34" s="1"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B35" s="1"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3"/>
+      <c r="F35" s="2"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BMB_Timesheet_Project.xlsx
+++ b/BMB_Timesheet_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonboyle/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC3FBA08-E44F-9C4C-B402-7CA5E9C3BA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F4A38B-EBAB-EC49-985D-5F30B6A48051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17280" xr2:uid="{9F1E1690-D6A1-F849-853B-DA743FAA6435}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="22">
   <si>
     <t xml:space="preserve">Initials </t>
   </si>
@@ -62,22 +62,46 @@
     <t>Create excel sheet, listened to podcast</t>
   </si>
   <si>
-    <t>BUSA-245</t>
-  </si>
-  <si>
     <t>Class Disscussion</t>
   </si>
   <si>
-    <t>ECON-111</t>
-  </si>
-  <si>
     <t>HW</t>
   </si>
   <si>
-    <t>PSYC</t>
-  </si>
-  <si>
     <t>Project</t>
+  </si>
+  <si>
+    <t>BUSA-245-03</t>
+  </si>
+  <si>
+    <t>ECON-111-01</t>
+  </si>
+  <si>
+    <t>PSYC-103H-01</t>
+  </si>
+  <si>
+    <t>Take home quiz &amp; disscussion post</t>
+  </si>
+  <si>
+    <t>Finishing classwork</t>
+  </si>
+  <si>
+    <t>COMM-103-01</t>
+  </si>
+  <si>
+    <t>Writing speech</t>
+  </si>
+  <si>
+    <t>Cengage HW</t>
+  </si>
+  <si>
+    <t>Practice Speech</t>
+  </si>
+  <si>
+    <t>Project work</t>
+  </si>
+  <si>
+    <t>Take home quiz</t>
   </si>
 </sst>
 </file>
@@ -503,10 +527,14 @@
   <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="6" t="s">
@@ -550,13 +578,13 @@
         <v>45176</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>20</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.2">
@@ -567,13 +595,13 @@
         <v>45179</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5">
         <v>80</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.2">
@@ -584,54 +612,184 @@
         <v>45179</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6">
         <v>30</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45181</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45181</v>
+      </c>
+      <c r="D8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45183</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9">
+        <v>20</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="7">
+        <v>45186</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="7">
+        <v>45186</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>45189</v>
+      </c>
+      <c r="D12" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>60</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="7">
+        <v>45190</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7">
+        <v>45190</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>20</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="7">
+        <v>45193</v>
+      </c>
+      <c r="D15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="1"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="1"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="F15" s="2"/>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="F16" s="2"/>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="7">
+        <v>45193</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>

--- a/BMB_Timesheet_Project.xlsx
+++ b/BMB_Timesheet_Project.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brandonboyle/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F4A38B-EBAB-EC49-985D-5F30B6A48051}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CA7CFD6-C8B1-F743-8986-2C8CEDE4EC8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17280" xr2:uid="{9F1E1690-D6A1-F849-853B-DA743FAA6435}"/>
   </bookViews>
@@ -527,7 +527,7 @@
   <dimension ref="B2:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
